--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -575,7 +575,7 @@
         <v>45763</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>45938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>45558</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>45546</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45847.54039351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45805</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45484</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>45394</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44313.6724537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>45978.36513888889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>45763.615625</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44874</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45352</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45328</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45593.7190625</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45548.48994212963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45575.40046296296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45848.34471064815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45971.34467592592</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>45560</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>45593.49023148148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>44686</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44245</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>45910.55276620371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>46003.55268518518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>45957</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>45596.66052083333</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>45027</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>45456.9669212963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>45617.61793981482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>45930.69866898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45930.6985300926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>45847.53387731482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>45589.42767361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>45967.4900462963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>45588</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45575.37862268519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>45182</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44874</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>45188</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>44664</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>44270</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>45008</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>45618.63611111111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>45355</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>45350</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45477</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45930.69878472222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44321</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>45526</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>45567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>45589.42753472222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>45314</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>46031</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45593.49070601852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>45267</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44559</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44694</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>45372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>45769.42828703704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44837</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45428</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>45763.61552083334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>45793.59447916667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44874</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44452.94059027778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44434</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44392</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44263</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44664</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44806</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44424.92148148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44347</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44347.4090162037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44846</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44875.92774305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44370</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>44477.43289351852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44720</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44600</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44824</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44676</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44487</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44734</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44816</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44512</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44517</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44378.60858796296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44263</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44728.94432870371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44301</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44477.43844907408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44386</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44438</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44475.87886574074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44402.41153935185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44301</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44476</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44585</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44447</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44664</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44691</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44804</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44384</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44301</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44512</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44503.38335648148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44301</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44806</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44735</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44581</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44848</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44469</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44522</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44672</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44652</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44515.31559027778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44664</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44616.70839120371</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44496</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44532</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44571</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44512</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44321</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44664</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44536</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44522</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44655</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44347.38006944444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44321</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44585.89016203704</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44357</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44792</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>45358</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>45462</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>45293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>45334</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44641</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44747.38347222222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44858</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>45554.63729166667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44881</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45523</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45209</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>45667.55081018519</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>45588</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44617.92136574074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>45576.59421296296</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>45281</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>45405</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>45314</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>45762.52707175926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>45649.63103009259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>45231</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>45496.92956018518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>45729.40671296296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>45352</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>45769.42833333334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>45566</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>45583.44405092593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45558.43896990741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44809.92577546297</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45757</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>44853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45126</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>45000.01231481481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>45228</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>44321</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45300</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>45350</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>45628</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>45516.53993055555</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>45799.57399305556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>45139</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>45799</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>44475</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>45586</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>45106.94429398148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>45803.42711805556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>45761.55424768518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>45762</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45531.43938657407</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45887.63584490741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>45800.61607638889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45887.36519675926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>45805.34465277778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44441.36515046296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>45805.44916666667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>45805.46679398148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>45805.46865740741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>45630.64306712963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>45289</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>45225</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>45807</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45888.4690162037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>45205</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>45811.38631944444</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45645.67857638889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45811.37457175926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>45649.62344907408</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>45281.9281712963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>45289</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>45890.34435185185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44320</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>45890.63642361111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>45278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>45813</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>45812.51498842592</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>45812.51732638889</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>45891.61520833334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>45567.40853009259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>45496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>45181</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45897.37375</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>45578.34388888889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>45578.40445601852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45819.3259837963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>45901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>45749.59996527778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45819.32322916666</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45800</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44728</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44424</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45757.58121527778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45800</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>45905.5446875</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>45825.34547453704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>45803.66592592592</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>45825.34550925926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>45825.34538194445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>45825.34542824074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17025,7 +17025,7 @@
         <v>45825.34561342592</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>45825.34568287037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>45825.34569444445</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>45799</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>45603</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>45681.54129629629</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>45825.34539351852</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17424,7 +17424,7 @@
         <v>45825.34547453704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17481,7 +17481,7 @@
         <v>45824.3446412037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>45791</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>45496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>45826.65685185185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>45910.57519675926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45915.49033564814</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45915.49113425926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44390</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>45826.5734375</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>45764.36490740741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>45917</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>45916.34471064815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45904</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45483</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44603</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45919.34494212963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>45910</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45203</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45919.34434027778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>45833.42825231481</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>45821</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18785,7 +18785,7 @@
         <v>45769.38585648148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45821</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45923.46921296296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>45922.34427083333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>45168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>45922.36494212963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>45833.55240740741</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45629.63753472222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45833.42840277778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45833.42873842592</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45924</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45833.38618055556</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>45925.3240625</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19551,7 +19551,7 @@
         <v>45832.65871527778</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
         <v>45832.63559027778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19665,7 +19665,7 @@
         <v>45833.57403935185</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>45924</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>45924</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>45833.38581018519</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>45924</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>45924.41118055556</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>45834</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44980</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>45924.54756944445</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>45097</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>45701.34599537037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>45811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>45729</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>45729.38563657407</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45834.46159722222</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>45562</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>45930</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45617</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45352</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45837.65668981482</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45769.42797453704</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45769.38575231482</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45837.6984375</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45730</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45919</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45840.54565972222</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>45936.64701388889</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>45342</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>45936.51167824074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>45936.5117824074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21420,7 +21420,7 @@
         <v>45840</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>45531.39597222222</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21534,7 +21534,7 @@
         <v>45840</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>45840.55723379629</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21648,7 +21648,7 @@
         <v>45840.57372685185</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21705,7 +21705,7 @@
         <v>45936.45436342592</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21762,7 +21762,7 @@
         <v>45937.34498842592</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45638.38923611111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45910</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>45293</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>45180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>44853</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>45939.59466435185</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45147</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45320</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>45293</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>45749</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>45848.60254629629</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
         <v>45848.61704861111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22570,7 +22570,7 @@
         <v>45848.65488425926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45853.34439814815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45348</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44973</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45859.49021990741</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45951.34535879629</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>45741.61486111111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>45072</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45322</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>44936.68680555555</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23202,7 +23202,7 @@
         <v>45793</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23259,7 +23259,7 @@
         <v>44321</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         <v>45953.34431712963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>45624</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>45729.40675925926</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>45511</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23549,7 +23549,7 @@
         <v>45825.34553240741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23606,7 +23606,7 @@
         <v>45749</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>45574.35724537037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>45952</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45741.61488425926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44321</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>45952</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>45952</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44728</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44971</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>45489.94590277778</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24186,7 +24186,7 @@
         <v>45959.36515046296</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>45638.34339120371</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>45959.36518518518</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>45415</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>45358</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>45874.61498842593</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>45874.61505787037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24585,7 +24585,7 @@
         <v>44791</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>45874.65864583333</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>45273</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>45874.61506944444</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>45126</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>45874.66869212963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24927,7 +24927,7 @@
         <v>45874.6715625</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>45685.36509259259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44987</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45189</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45376</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>44869</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>45880.34414351852</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>45006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>45428</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>45562</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>45409</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>45645</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>45793.34438657408</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25683,7 +25683,7 @@
         <v>45638.69253472222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>45409</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25797,7 +25797,7 @@
         <v>45973.57857638889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25854,7 +25854,7 @@
         <v>44314</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>45972.61591435185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>45973.5896412037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>45972.61564814814</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>45352</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>45887.63356481482</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>45887.626875</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>45975.6159375</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26330,7 +26330,7 @@
         <v>45884.45579861111</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26387,7 +26387,7 @@
         <v>45975.34515046296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>45978.34434027778</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45979.34581018519</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45979.42451388889</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45979.42777777778</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45979.43927083333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>46020.68284722222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45979.47430555556</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45979.34442129629</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45979.34475694445</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26982,7 +26982,7 @@
         <v>45979.34508101852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27044,7 +27044,7 @@
         <v>45147</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27101,7 +27101,7 @@
         <v>46023.65657407408</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27158,7 +27158,7 @@
         <v>45980.38600694444</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27215,7 +27215,7 @@
         <v>45462</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>45981</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>46023.63584490741</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45981.65686342592</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45161</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>46021.974375</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45418</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>46023.63582175926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>46023.65659722222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>46024.43549768518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44937.92483796296</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>46024.46907407408</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>46024.46914351852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>45985.63694444444</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>46024.44824074074</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>46024.46909722222</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>45772.46998842592</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>46022</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>46026</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>46026</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>46024</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>45987</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>46029.74581018519</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>45723</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>46029.44939814815</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>46024</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>45733.4356712963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>46026</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>46029.78170138889</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>46029.75778935185</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>46026</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>46029.77623842593</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>46022</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>46022</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>45293</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>46030.62643518519</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>46030.71917824074</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>45392</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>45044</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44951.94020833333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>46030</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>46034.58887731482</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>46035.3903587963</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>46034.39813657408</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45992.39237268519</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44897</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45992.89322916666</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45044</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>46035.38560185185</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45992.40408564815</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45992.3971875</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>44732</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30266,7 +30266,7 @@
         <v>45729.344375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44596</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30385,7 +30385,7 @@
         <v>44706</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30442,7 +30442,7 @@
         <v>45512</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30499,7 +30499,7 @@
         <v>46027</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>45629.63747685185</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30613,7 +30613,7 @@
         <v>45126</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30670,7 +30670,7 @@
         <v>46035</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30727,7 +30727,7 @@
         <v>46021</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30784,7 +30784,7 @@
         <v>46027</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>45999.38697916667</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30898,7 +30898,7 @@
         <v>45999.38715277778</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         <v>45646</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31012,7 +31012,7 @@
         <v>45329.36856481482</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31069,7 +31069,7 @@
         <v>46041.58019675926</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31126,7 +31126,7 @@
         <v>46038.42966435185</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>46038.42410879629</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>45999.38717592593</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>46042.37601851852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>46042.68803240741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>45616.5107175926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>45320</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>46000.58881944444</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>46000.58288194444</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>46000.60041666667</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>46029</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>46042.6821412037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>45526</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>45035</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>45163</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>46045.34459490741</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>44853</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>45138</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>46046.67746527777</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>45775.36451388889</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>45531</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32333,7 +32333,7 @@
         <v>44867.92756944444</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32390,7 +32390,7 @@
         <v>46006.57371527778</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>46046.656875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32504,7 +32504,7 @@
         <v>45764.44842592593</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32566,7 +32566,7 @@
         <v>46004</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32623,7 +32623,7 @@
         <v>46035</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32680,7 +32680,7 @@
         <v>46047.59425925926</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45390</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32794,7 +32794,7 @@
         <v>45678.4485300926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32856,7 +32856,7 @@
         <v>46051.365</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32913,7 +32913,7 @@
         <v>46049</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>45772.3857175926</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>45072</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>46009.37552083333</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>44676</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>46009.34849537037</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33265,7 +33265,7 @@
         <v>46052.56612268519</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33322,7 +33322,7 @@
         <v>46054.69831018519</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33379,7 +33379,7 @@
         <v>46013</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33436,7 +33436,7 @@
         <v>46052</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>46052.36519675926</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>46052</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>46055.69087962963</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>46052</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>46052</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45145.95366898148</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>45145.95372685185</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33969,7 +33969,7 @@
         <v>45749</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34026,7 +34026,7 @@
         <v>45469</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34083,7 +34083,7 @@
         <v>45313</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34140,7 +34140,7 @@
         <v>46049</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34197,7 +34197,7 @@
         <v>46056.54938657407</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34254,7 +34254,7 @@
         <v>45622</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34311,7 +34311,7 @@
         <v>46058.52710648148</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34368,7 +34368,7 @@
         <v>44971</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34430,7 +34430,7 @@
         <v>46058.53163194445</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34487,7 +34487,7 @@
         <v>45148.92568287037</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34544,7 +34544,7 @@
         <v>45243</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34601,7 +34601,7 @@
         <v>44845.92814814814</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>46052</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34715,7 +34715,7 @@
         <v>45733.44667824074</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34772,7 +34772,7 @@
         <v>45409</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34829,7 +34829,7 @@
         <v>44580.92256944445</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34886,7 +34886,7 @@
         <v>45513</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34948,7 +34948,7 @@
         <v>45513</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>44894</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45771.588125</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45366</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45251</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>44498</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45376</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45637.36509259259</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35414,7 +35414,7 @@
         <v>44865.95387731482</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35476,7 +35476,7 @@
         <v>45699.42733796296</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35533,7 +35533,7 @@
         <v>45044</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35595,7 +35595,7 @@
         <v>45502</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35652,7 +35652,7 @@
         <v>44726.61040509259</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35709,7 +35709,7 @@
         <v>44973.92466435185</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35766,7 +35766,7 @@
         <v>44889</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35828,7 +35828,7 @@
         <v>44755</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35885,7 +35885,7 @@
         <v>44881.95212962963</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>45194</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>45706.59415509259</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         <v>45505</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>44847</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44287</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44847</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>45723.55694444444</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>45482.95092592593</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>45328</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>45328</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>45390</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>45685.36495370371</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36666,7 +36666,7 @@
         <v>44496</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36723,7 +36723,7 @@
         <v>44875</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>44448</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         <v>44531.43854166667</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36894,7 +36894,7 @@
         <v>45729</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36951,7 +36951,7 @@
         <v>45545</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37008,7 +37008,7 @@
         <v>45595.6062962963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37065,7 +37065,7 @@
         <v>45595.63494212963</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37122,7 +37122,7 @@
         <v>45280</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37179,7 +37179,7 @@
         <v>45756</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37236,7 +37236,7 @@
         <v>44743.92454861111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37293,7 +37293,7 @@
         <v>44806</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37350,7 +37350,7 @@
         <v>44806</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>45714.56533564815</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37464,7 +37464,7 @@
         <v>45229</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37521,7 +37521,7 @@
         <v>44991</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37583,7 +37583,7 @@
         <v>45764.38630787037</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37645,7 +37645,7 @@
         <v>45250</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37702,7 +37702,7 @@
         <v>45580.46635416667</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37759,7 +37759,7 @@
         <v>45281.92850694444</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>45365</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44957</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>45265.95650462963</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37992,7 +37992,7 @@
         <v>45476</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>44320</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>45476</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38163,7 +38163,7 @@
         <v>45166</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44855.92621527778</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44890</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38344,7 +38344,7 @@
         <v>45588.36490740741</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38406,7 +38406,7 @@
         <v>44853.92789351852</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38463,7 +38463,7 @@
         <v>44945</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>44903</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38587,7 +38587,7 @@
         <v>45251</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>45512</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38701,7 +38701,7 @@
         <v>45723.48438657408</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38758,7 +38758,7 @@
         <v>44497</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38815,7 +38815,7 @@
         <v>44502</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38872,7 +38872,7 @@
         <v>45685.44978009259</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38929,7 +38929,7 @@
         <v>45323.62694444445</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38986,7 +38986,7 @@
         <v>45639.45652777778</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         <v>44609</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39105,7 +39105,7 @@
         <v>44952</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39162,7 +39162,7 @@
         <v>45715.4187037037</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39219,7 +39219,7 @@
         <v>44747</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39276,7 +39276,7 @@
         <v>45152</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39333,7 +39333,7 @@
         <v>45764.42755787037</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>45099</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>45629.39958333333</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39514,7 +39514,7 @@
         <v>45000.01387731481</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>45000</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39638,7 +39638,7 @@
         <v>44819.94980324074</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39700,7 +39700,7 @@
         <v>45609</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39757,7 +39757,7 @@
         <v>45762.52983796296</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39814,7 +39814,7 @@
         <v>44442.56886574074</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39871,7 +39871,7 @@
         <v>45713.43980324074</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39928,7 +39928,7 @@
         <v>45163.92689814815</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>45638.71168981482</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>45107</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>45276</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>45685.46976851852</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40213,7 +40213,7 @@
         <v>45776</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40270,7 +40270,7 @@
         <v>45776</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40327,7 +40327,7 @@
         <v>45782.595</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>45782.67861111111</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40451,7 +40451,7 @@
         <v>45782.59438657408</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>45785.48142361111</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40570,7 +40570,7 @@
         <v>45562</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         <v>45785</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>45785.47561342592</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40746,7 +40746,7 @@
         <v>45578.37409722222</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40803,7 +40803,7 @@
         <v>45786.67776620371</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40865,7 +40865,7 @@
         <v>45574.50597222222</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40922,7 +40922,7 @@
         <v>45791.62273148148</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>45790.34427083333</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41041,7 +41041,7 @@
         <v>45791</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41098,7 +41098,7 @@
         <v>45342</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41155,7 +41155,7 @@
         <v>45433</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41212,7 +41212,7 @@
         <v>45351</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41269,7 +41269,7 @@
         <v>45793</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41326,7 +41326,7 @@
         <v>45579.40584490741</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41383,7 +41383,7 @@
         <v>44571</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41440,7 +41440,7 @@
         <v>45266.55423611111</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -575,7 +575,7 @@
         <v>45763</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>45938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>45558</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>45546</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45847.54039351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45805</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45484</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>45394</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44313.6724537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>45978.36513888889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>45763.615625</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44874</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45352</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45328</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45593.7190625</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45548.48994212963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45575.40046296296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45848.34471064815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45971.34467592592</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>45560</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>45593.49023148148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>44686</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44245</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>45910.55276620371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>46003.55268518518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>45957</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>45596.66052083333</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>45027</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>45456.9669212963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>45617.61793981482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>45930.69866898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45930.6985300926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>45847.53387731482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>45589.42767361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>45967.4900462963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>45588</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45575.37862268519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>45182</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44874</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>45188</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>44664</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>44270</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>45008</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>45618.63611111111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>45355</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>45350</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45477</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45930.69878472222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44321</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>45526</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>45567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>45589.42753472222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>45314</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>46031</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45593.49070601852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>45267</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44559</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44694</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>45372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>45769.42828703704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44837</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45428</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>45763.61552083334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>45793.59447916667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44874</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44452.94059027778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44434</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44392</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44263</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44664</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44806</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44424.92148148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44347</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44347.4090162037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44846</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44875.92774305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44370</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>44477.43289351852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44720</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44600</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44824</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44676</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44487</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44734</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44816</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44512</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44517</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44378.60858796296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44263</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44728.94432870371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44301</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44477.43844907408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44386</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44438</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44475.87886574074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44402.41153935185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44301</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44476</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44585</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44447</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44664</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44691</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44804</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44384</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44301</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44512</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44503.38335648148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44301</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44806</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44735</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44581</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44848</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44469</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44522</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44672</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44652</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44515.31559027778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44664</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44616.70839120371</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44496</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44532</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44571</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44512</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44321</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44664</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44536</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44522</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44655</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44347.38006944444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44321</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44585.89016203704</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44357</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44792</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>45358</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>45462</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>45293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>45334</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44641</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44747.38347222222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44858</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>45554.63729166667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44881</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45523</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45209</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>45667.55081018519</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>45588</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44617.92136574074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>45576.59421296296</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>45281</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>45405</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>45314</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>45762.52707175926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>45649.63103009259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>45231</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>45496.92956018518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>45729.40671296296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>45352</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>45769.42833333334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>45566</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>45583.44405092593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45558.43896990741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44809.92577546297</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45757</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>44853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45126</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>45000.01231481481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>45228</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>44321</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45300</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>45350</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>45628</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>45516.53993055555</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>45799.57399305556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>45139</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>45799</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>44475</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>45586</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>45106.94429398148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>45803.42711805556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>45761.55424768518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>45762</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45531.43938657407</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45887.63584490741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>45800.61607638889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45887.36519675926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>45805.34465277778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44441.36515046296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>45805.44916666667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>45805.46679398148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>45805.46865740741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>45630.64306712963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>45289</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>45225</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>45807</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45888.4690162037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>45205</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>45811.38631944444</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45645.67857638889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45811.37457175926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>45649.62344907408</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>45281.9281712963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>45289</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>45890.34435185185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44320</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>45890.63642361111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>45278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>45813</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>45812.51498842592</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>45812.51732638889</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>45891.61520833334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>45567.40853009259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>45496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>45181</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45897.37375</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>45578.34388888889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>45578.40445601852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45819.3259837963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>45901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>45749.59996527778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45819.32322916666</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45800</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44728</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44424</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45757.58121527778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45800</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>45905.5446875</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>45825.34547453704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>45803.66592592592</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>45825.34550925926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>45825.34538194445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>45825.34542824074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17025,7 +17025,7 @@
         <v>45825.34561342592</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>45825.34568287037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>45825.34569444445</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>45799</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>45603</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>45681.54129629629</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>45825.34539351852</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17424,7 +17424,7 @@
         <v>45825.34547453704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17481,7 +17481,7 @@
         <v>45824.3446412037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>45791</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>45496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>45826.65685185185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>45910.57519675926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45915.49033564814</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45915.49113425926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44390</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>45826.5734375</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>45764.36490740741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>45917</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>45916.34471064815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45904</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45483</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44603</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45919.34494212963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>45910</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45203</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45919.34434027778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>45833.42825231481</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>45821</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18785,7 +18785,7 @@
         <v>45769.38585648148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45821</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45923.46921296296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>45922.34427083333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>45168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>45922.36494212963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>45833.55240740741</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45629.63753472222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45833.42840277778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45833.42873842592</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45924</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45833.38618055556</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>45925.3240625</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19551,7 +19551,7 @@
         <v>45832.65871527778</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
         <v>45832.63559027778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19665,7 +19665,7 @@
         <v>45833.57403935185</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>45924</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>45924</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>45833.38581018519</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>45924</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>45924.41118055556</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>45834</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44980</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>45924.54756944445</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>45097</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>45701.34599537037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>45811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>45729</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>45729.38563657407</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45834.46159722222</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>45562</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>45930</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45617</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45352</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45837.65668981482</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45769.42797453704</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45769.38575231482</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45837.6984375</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45730</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45919</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45840.54565972222</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>45936.64701388889</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>45342</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>45936.51167824074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>45936.5117824074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21420,7 +21420,7 @@
         <v>45840</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>45531.39597222222</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21534,7 +21534,7 @@
         <v>45840</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>45840.55723379629</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21648,7 +21648,7 @@
         <v>45840.57372685185</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21705,7 +21705,7 @@
         <v>45936.45436342592</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21762,7 +21762,7 @@
         <v>45937.34498842592</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45638.38923611111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45910</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>45293</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>45180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>44853</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>45939.59466435185</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45147</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45320</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>45293</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>45749</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>45848.60254629629</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
         <v>45848.61704861111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22570,7 +22570,7 @@
         <v>45848.65488425926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45853.34439814815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45348</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44973</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45859.49021990741</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45951.34535879629</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>45741.61486111111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>45072</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45322</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>44936.68680555555</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23202,7 +23202,7 @@
         <v>45793</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23259,7 +23259,7 @@
         <v>44321</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         <v>45953.34431712963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>45624</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>45729.40675925926</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>45511</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23549,7 +23549,7 @@
         <v>45825.34553240741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23606,7 +23606,7 @@
         <v>45749</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>45574.35724537037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>45952</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45741.61488425926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44321</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>45952</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>45952</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44728</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44971</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>45489.94590277778</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24186,7 +24186,7 @@
         <v>45959.36515046296</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>45638.34339120371</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>45959.36518518518</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>45415</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>45358</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>45874.61498842593</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>45874.61505787037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24585,7 +24585,7 @@
         <v>44791</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>45874.65864583333</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>45273</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>45874.61506944444</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>45126</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>45874.66869212963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24927,7 +24927,7 @@
         <v>45874.6715625</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>45685.36509259259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44987</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45189</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45376</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>44869</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>45880.34414351852</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>45006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>45428</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>45562</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>45409</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>45645</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>45793.34438657408</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25683,7 +25683,7 @@
         <v>45638.69253472222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>45409</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25797,7 +25797,7 @@
         <v>45973.57857638889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25854,7 +25854,7 @@
         <v>44314</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>45972.61591435185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>45973.5896412037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>45972.61564814814</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>45352</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>45887.63356481482</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>45887.626875</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>45975.6159375</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26330,7 +26330,7 @@
         <v>45884.45579861111</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26387,7 +26387,7 @@
         <v>45975.34515046296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>45978.34434027778</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45979.34581018519</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45979.42451388889</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45979.42777777778</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45979.43927083333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>46020.68284722222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45979.47430555556</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45979.34442129629</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45979.34475694445</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26982,7 +26982,7 @@
         <v>45979.34508101852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27044,7 +27044,7 @@
         <v>45147</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27101,7 +27101,7 @@
         <v>46023.65657407408</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27158,7 +27158,7 @@
         <v>45980.38600694444</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27215,7 +27215,7 @@
         <v>45462</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>45981</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>46023.63584490741</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45981.65686342592</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45161</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>46021.974375</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45418</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>46023.63582175926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>46023.65659722222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>46024.43549768518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44937.92483796296</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>46024.46907407408</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>46024.46914351852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>45985.63694444444</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>46024.44824074074</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>46024.46909722222</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>45772.46998842592</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>46022</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>46026</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>46026</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>46024</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>45987</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>46029.74581018519</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>45723</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>46029.44939814815</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>46024</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>45733.4356712963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>46026</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>46029.78170138889</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>46029.75778935185</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>46026</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>46029.77623842593</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>46022</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>46022</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>45293</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>46030.62643518519</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>46030.71917824074</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>45392</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>45044</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44951.94020833333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>46030</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>46034.58887731482</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>46035.3903587963</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>46034.39813657408</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45992.39237268519</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44897</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45992.89322916666</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45044</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>46035.38560185185</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45992.40408564815</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45992.3971875</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>44732</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30266,7 +30266,7 @@
         <v>45729.344375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44596</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30385,7 +30385,7 @@
         <v>44706</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30442,7 +30442,7 @@
         <v>45512</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30499,7 +30499,7 @@
         <v>46027</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>45629.63747685185</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30613,7 +30613,7 @@
         <v>45126</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30670,7 +30670,7 @@
         <v>46035</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30727,7 +30727,7 @@
         <v>46021</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30784,7 +30784,7 @@
         <v>46027</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>45999.38697916667</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30898,7 +30898,7 @@
         <v>45999.38715277778</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         <v>45646</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31012,7 +31012,7 @@
         <v>45329.36856481482</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31069,7 +31069,7 @@
         <v>46041.58019675926</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31126,7 +31126,7 @@
         <v>46038.42966435185</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>46038.42410879629</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>45999.38717592593</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>46042.37601851852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>46042.68803240741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>45616.5107175926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>45320</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>46000.58881944444</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>46000.58288194444</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>46000.60041666667</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>46029</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>46042.6821412037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>45526</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>45035</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>45163</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>46045.34459490741</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>44853</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>45138</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>46046.67746527777</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>45775.36451388889</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>45531</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32333,7 +32333,7 @@
         <v>44867.92756944444</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32390,7 +32390,7 @@
         <v>46006.57371527778</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>46046.656875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32504,7 +32504,7 @@
         <v>45764.44842592593</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32566,7 +32566,7 @@
         <v>46004</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32623,7 +32623,7 @@
         <v>46035</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32680,7 +32680,7 @@
         <v>46047.59425925926</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45390</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32794,7 +32794,7 @@
         <v>45678.4485300926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32856,7 +32856,7 @@
         <v>46051.365</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32913,7 +32913,7 @@
         <v>46049</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>45772.3857175926</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>45072</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>46009.37552083333</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>44676</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>46009.34849537037</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33265,7 +33265,7 @@
         <v>46052.56612268519</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33322,7 +33322,7 @@
         <v>46054.69831018519</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33379,7 +33379,7 @@
         <v>46013</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33436,7 +33436,7 @@
         <v>46052</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>46052.36519675926</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>46052</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>46055.69087962963</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>46052</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>46052</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45145.95366898148</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>45145.95372685185</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33969,7 +33969,7 @@
         <v>45749</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34026,7 +34026,7 @@
         <v>45469</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34083,7 +34083,7 @@
         <v>45313</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34140,7 +34140,7 @@
         <v>46049</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34197,7 +34197,7 @@
         <v>46056.54938657407</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34254,7 +34254,7 @@
         <v>45622</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34311,7 +34311,7 @@
         <v>46058.52710648148</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34368,7 +34368,7 @@
         <v>44971</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34430,7 +34430,7 @@
         <v>46058.53163194445</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34487,7 +34487,7 @@
         <v>45148.92568287037</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34544,7 +34544,7 @@
         <v>45243</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34601,7 +34601,7 @@
         <v>44845.92814814814</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>46052</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34715,7 +34715,7 @@
         <v>45733.44667824074</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34772,7 +34772,7 @@
         <v>45409</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34829,7 +34829,7 @@
         <v>44580.92256944445</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34886,7 +34886,7 @@
         <v>45513</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34948,7 +34948,7 @@
         <v>45513</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>44894</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45771.588125</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45366</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45251</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>44498</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45376</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45637.36509259259</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35414,7 +35414,7 @@
         <v>44865.95387731482</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35476,7 +35476,7 @@
         <v>45699.42733796296</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35533,7 +35533,7 @@
         <v>45044</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35595,7 +35595,7 @@
         <v>45502</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35652,7 +35652,7 @@
         <v>44726.61040509259</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35709,7 +35709,7 @@
         <v>44973.92466435185</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35766,7 +35766,7 @@
         <v>44889</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35828,7 +35828,7 @@
         <v>44755</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35885,7 +35885,7 @@
         <v>44881.95212962963</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>45194</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>45706.59415509259</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         <v>45505</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>44847</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44287</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44847</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>45723.55694444444</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>45482.95092592593</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>45328</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>45328</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>45390</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>45685.36495370371</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36666,7 +36666,7 @@
         <v>44496</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36723,7 +36723,7 @@
         <v>44875</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>44448</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         <v>44531.43854166667</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36894,7 +36894,7 @@
         <v>45729</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36951,7 +36951,7 @@
         <v>45545</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37008,7 +37008,7 @@
         <v>45595.6062962963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37065,7 +37065,7 @@
         <v>45595.63494212963</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37122,7 +37122,7 @@
         <v>45280</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37179,7 +37179,7 @@
         <v>45756</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37236,7 +37236,7 @@
         <v>44743.92454861111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37293,7 +37293,7 @@
         <v>44806</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37350,7 +37350,7 @@
         <v>44806</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>45714.56533564815</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37464,7 +37464,7 @@
         <v>45229</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37521,7 +37521,7 @@
         <v>44991</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37583,7 +37583,7 @@
         <v>45764.38630787037</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37645,7 +37645,7 @@
         <v>45250</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37702,7 +37702,7 @@
         <v>45580.46635416667</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37759,7 +37759,7 @@
         <v>45281.92850694444</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>45365</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44957</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>45265.95650462963</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37992,7 +37992,7 @@
         <v>45476</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>44320</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>45476</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38163,7 +38163,7 @@
         <v>45166</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44855.92621527778</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44890</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38344,7 +38344,7 @@
         <v>45588.36490740741</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38406,7 +38406,7 @@
         <v>44853.92789351852</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38463,7 +38463,7 @@
         <v>44945</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>44903</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38587,7 +38587,7 @@
         <v>45251</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>45512</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38701,7 +38701,7 @@
         <v>45723.48438657408</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38758,7 +38758,7 @@
         <v>44497</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38815,7 +38815,7 @@
         <v>44502</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38872,7 +38872,7 @@
         <v>45685.44978009259</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38929,7 +38929,7 @@
         <v>45323.62694444445</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38986,7 +38986,7 @@
         <v>45639.45652777778</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         <v>44609</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39105,7 +39105,7 @@
         <v>44952</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39162,7 +39162,7 @@
         <v>45715.4187037037</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39219,7 +39219,7 @@
         <v>44747</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39276,7 +39276,7 @@
         <v>45152</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39333,7 +39333,7 @@
         <v>45764.42755787037</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>45099</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>45629.39958333333</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39514,7 +39514,7 @@
         <v>45000.01387731481</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>45000</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39638,7 +39638,7 @@
         <v>44819.94980324074</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39700,7 +39700,7 @@
         <v>45609</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39757,7 +39757,7 @@
         <v>45762.52983796296</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39814,7 +39814,7 @@
         <v>44442.56886574074</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39871,7 +39871,7 @@
         <v>45713.43980324074</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39928,7 +39928,7 @@
         <v>45163.92689814815</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>45638.71168981482</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>45107</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>45276</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>45685.46976851852</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40213,7 +40213,7 @@
         <v>45776</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40270,7 +40270,7 @@
         <v>45776</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40327,7 +40327,7 @@
         <v>45782.595</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>45782.67861111111</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40451,7 +40451,7 @@
         <v>45782.59438657408</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>45785.48142361111</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40570,7 +40570,7 @@
         <v>45562</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         <v>45785</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>45785.47561342592</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40746,7 +40746,7 @@
         <v>45578.37409722222</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40803,7 +40803,7 @@
         <v>45786.67776620371</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40865,7 +40865,7 @@
         <v>45574.50597222222</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40922,7 +40922,7 @@
         <v>45791.62273148148</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>45790.34427083333</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41041,7 +41041,7 @@
         <v>45791</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41098,7 +41098,7 @@
         <v>45342</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41155,7 +41155,7 @@
         <v>45433</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41212,7 +41212,7 @@
         <v>45351</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41269,7 +41269,7 @@
         <v>45793</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41326,7 +41326,7 @@
         <v>45579.40584490741</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41383,7 +41383,7 @@
         <v>44571</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41440,7 +41440,7 @@
         <v>45266.55423611111</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -575,7 +575,7 @@
         <v>45763</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>45938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>45558</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>45847.54039351852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45805</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45484</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>45394</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44313.6724537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>45763.615625</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45978.36513888889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44874</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45352</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45328</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45593.7190625</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45548.48994212963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45575.40046296296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45848.34471064815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45971.34467592592</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>45560</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>45593.49023148148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>44686</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45910.55276620371</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>46003.55268518518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>45957</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>45596.66052083333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>45456.9669212963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45617.61793981482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45847.53387731482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>45930.69866898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>45930.6985300926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>45589.42767361111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>45588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>45967.4900462963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45575.37862268519</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>45182</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>44874</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>45188</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44664</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44270</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45008</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45618.63611111111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>45355</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45350</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45477</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>45567</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>45930.69878472222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44321</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>45526</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>45589.42753472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>45314</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45593.49070601852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>45267</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>46062</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>46031</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>44559</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>44694</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>45372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>45769.42828703704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>44837</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>45428</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>45763.61552083334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>45793.59447916667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>44874</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>44452.94059027778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>44434</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>44392</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>44263</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>44664</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>44806</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>44424.92148148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44347.4090162037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>44347</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44846</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44875.92774305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44370</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44477.43289351852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44720</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44600</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>44824</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44487</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>44734</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44816</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>44517</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44263</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>44378.60858796296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>44728.94432870371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44301</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44477.43844907408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44386</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44438</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44475.87886574074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44402.41153935185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44301</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>44476</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>44585</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>44447</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>44697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44664</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44691</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44804</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44384</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44301</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44512</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44503.38335648148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44301</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44806</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44735</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44581</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44848</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>44469</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44522</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>44672</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44515.31559027778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>44652</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>44664</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>44616.70839120371</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>44496</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>44532</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>44571</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>44512</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>44321</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>44664</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44536</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>44522</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>44655</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>44347.38006944444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>44321</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44585.89016203704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>44357</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44792</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>45358</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>45462</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>45293</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>44641</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>45554.63729166667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>45334</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>45209</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>45523</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11642,7 +11642,7 @@
         <v>45667.55081018519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>45588</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>44617.92136574074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>45576.59421296296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>45281</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>45314</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>45762.52707175926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>45405</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44747.38347222222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44858</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45649.63103009259</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45231</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45496.92956018518</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45729.40671296296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>45583.44405092593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>45769.42833333334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>45352</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44853</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44809.92577546297</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>45566</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>45757</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>45558.43896990741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>45000.01231481481</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>45228</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44321</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>45350</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45300</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>45628</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>45586</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>45482</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>45106.94429398148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>45531.43938657407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44853</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>45289</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>45225</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>45281.9281712963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>45278</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>45289</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>45645.67857638889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>44320</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45649.62344907408</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>44755</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>45181</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>45819.3259837963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>45761.55424768518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45819.32322916666</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>45887.63584490741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>45887.36519675926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>45800</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>45578.34388888889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>45578.40445601852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>45749.59996527778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>45800</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>45825.34547453704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>45825.34550925926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>45825.34538194445</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>45825.34542824074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>45825.34561342592</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>45825.34568287037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>45825.34569444445</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15221,7 +15221,7 @@
         <v>45888.4690162037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15278,7 +15278,7 @@
         <v>45825.34539351852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>45825.34547453704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15392,7 +15392,7 @@
         <v>44728</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>45824.3446412037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>45791</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44424</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>45757.58121527778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>45890.34435185185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15744,7 +15744,7 @@
         <v>45826.65685185185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45890.63642361111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45826.5734375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>45891.61520833334</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45681.54129629629</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45567.40853009259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45833.42825231481</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>45496</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45821</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>45821</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>45897.37375</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>45833.55240740741</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>45833.42840277778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45833.42873842592</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>45833.38618055556</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44390</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>45832.65871527778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45832.63559027778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>45764.36490740741</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45833.57403935185</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>45833.38581018519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>45834</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>45901</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>45811</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>45483</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>45834.46159722222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>44603</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45173</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>45837.65668981482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>45203</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>45905.5446875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>45769.38585648148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>45837.6984375</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>45803.66592592592</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>45168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>45629.63753472222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>45799</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         <v>45840.54565972222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>45603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>45840</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18094,7 +18094,7 @@
         <v>45840</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>45840.55723379629</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>45840.57372685185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44980</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>45097</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45910.57519675926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>45701.34599537037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>45915.49033564814</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         <v>45915.49113425926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>45729</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>45729.38563657407</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>45562</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>45749</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>45917</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>45916.34471064815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>45848.60254629629</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45904</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45848.61704861111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45848.65488425926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>45853.34439814815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45352</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45919.34494212963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45769.42797453704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45769.38575231482</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44973</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45919.34434027778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>45730</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>45859.49021990741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>45923.46921296296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>45741.61486111111</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>45922.34427083333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>45342</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>45922.36494212963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45793</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45531.39597222222</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45624</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>45729.40675925926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45924</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>45925.3240625</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>45638.38923611111</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>45825.34553240741</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>45574.35724537037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>45924</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>45924</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>45741.61488425926</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>45924</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>45924.41118055556</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45293</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20999,7 +20999,7 @@
         <v>45924.54756944445</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45180</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>44853</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>45147</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>45320</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>45168</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21341,7 +21341,7 @@
         <v>45293</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21398,7 +21398,7 @@
         <v>45874.61498842593</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>45874.61505787037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45874.65864583333</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>45930</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21626,7 +21626,7 @@
         <v>45874.61506944444</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>45874.66869212963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21740,7 +21740,7 @@
         <v>45874.6715625</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>45880.34414351852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21854,7 +21854,7 @@
         <v>45919</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>45936.64701388889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>45936.51167824074</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>45936.5117824074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>45348</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>45936.45436342592</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>45937.34498842592</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>45168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>45072</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>45322</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44936.68680555555</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44321</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>45910</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>45511</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>45939.59466435185</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>45749</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>44321</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44728</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>45887.63356481482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>45887.626875</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>44971</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>45884.45579861111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>45489.94590277778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>45638.34339120371</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45415</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45358</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44791</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>45273</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>45126</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>45685.36509259259</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44987</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45189</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45951.34535879629</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>45376</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44869</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45953.34431712963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45006</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45428</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45952</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45562</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>45952</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>45952</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         <v>45409</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>45645</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>45638.69253472222</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>45409</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>45959.36515046296</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45959.36518518518</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44314</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>45352</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>45147</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>45462</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>45793.34438657408</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>45418</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>45091</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44937.92483796296</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>45973.57857638889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>45972.61591435185</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>45973.5896412037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>45972.61564814814</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45772.46998842592</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>45723</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>45975.6159375</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25577,7 +25577,7 @@
         <v>45975.34515046296</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45978.34434027778</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>45733.4356712963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>45979.34581018519</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>45979.42451388889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>45979.42777777778</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>45979.43927083333</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>45979.47430555556</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>45293</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>45979.34442129629</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>45979.34475694445</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26229,7 +26229,7 @@
         <v>45979.34508101852</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26291,7 +26291,7 @@
         <v>45980.38600694444</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26348,7 +26348,7 @@
         <v>45981</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26410,7 +26410,7 @@
         <v>45392</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26467,7 +26467,7 @@
         <v>45981.65686342592</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45044</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>44951.94020833333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45985.63694444444</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44897</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45987</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45044</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45729.344375</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44596</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>44706</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>45512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>46034.58887731482</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>45629.63747685185</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>46035.3903587963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>46034.39813657408</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>45992.39237268519</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>45992.89322916666</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>46035.38560185185</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>45992.40408564815</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45992.3971875</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45126</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45646</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>46035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45329.36856481482</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45999.38697916667</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45999.38715277778</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>46041.58019675926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45616.5107175926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45320</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>46038.42966435185</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>46038.42410879629</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45999.38717592593</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>45526</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28430,7 +28430,7 @@
         <v>46042.37601851852</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28487,7 +28487,7 @@
         <v>46042.68803240741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28544,7 +28544,7 @@
         <v>45035</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28601,7 +28601,7 @@
         <v>46000.58881944444</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>46000.58288194444</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28715,7 +28715,7 @@
         <v>46000.60041666667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28772,7 +28772,7 @@
         <v>45163</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>46042.6821412037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>44853</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45138</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         <v>46045.34459490741</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>45775.36451388889</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29114,7 +29114,7 @@
         <v>45531</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44867.92756944444</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>45764.44842592593</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>46046.67746527777</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>45390</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>45678.4485300926</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29471,7 +29471,7 @@
         <v>46006.57371527778</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>46046.656875</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29585,7 +29585,7 @@
         <v>45772.3857175926</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         <v>44676</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         <v>46004</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29823,7 +29823,7 @@
         <v>46035</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29880,7 +29880,7 @@
         <v>46051.365</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>46049</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>46009.37552083333</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>46009.34849537037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>45015</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         <v>46052.56612268519</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>46013</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
         <v>45145.95366898148</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30346,7 +30346,7 @@
         <v>45145.95372685185</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30408,7 +30408,7 @@
         <v>45749</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30465,7 +30465,7 @@
         <v>46052</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30527,7 +30527,7 @@
         <v>46052.36519675926</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30584,7 +30584,7 @@
         <v>46055.69087962963</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30641,7 +30641,7 @@
         <v>45469</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30698,7 +30698,7 @@
         <v>45313</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30755,7 +30755,7 @@
         <v>45622</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30812,7 +30812,7 @@
         <v>46056.54938657407</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30869,7 +30869,7 @@
         <v>44971</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30931,7 +30931,7 @@
         <v>45148.92568287037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30988,7 +30988,7 @@
         <v>45243</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44845.92814814814</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>45733.44667824074</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>45409</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         <v>44580.92256944445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31273,7 +31273,7 @@
         <v>45513</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>45513</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>46020.68284722222</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>46021</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44894</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>45771.588125</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>45366</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31682,7 +31682,7 @@
         <v>46060.7765625</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31739,7 +31739,7 @@
         <v>46063.34446759259</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31796,7 +31796,7 @@
         <v>45251</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>44498</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31910,7 +31910,7 @@
         <v>46022</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31967,7 +31967,7 @@
         <v>46049</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32024,7 +32024,7 @@
         <v>46063</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32081,7 +32081,7 @@
         <v>45376</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>46022</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>46021.974375</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         <v>46023.63582175926</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>46023.63584490741</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32366,7 +32366,7 @@
         <v>46065.49013888889</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32423,7 +32423,7 @@
         <v>45637.36509259259</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>46054</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>46022</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>46065.36491898148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>46047</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>46023.65659722222</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>46058</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>46023.65657407408</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>46058</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44865.95387731482</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33003,7 +33003,7 @@
         <v>45699.42733796296</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33060,7 +33060,7 @@
         <v>46024.46909722222</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33117,7 +33117,7 @@
         <v>46024</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33174,7 +33174,7 @@
         <v>46026</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>46024.43549768518</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>46027</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>46069.57037037037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>46065</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>46024</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>45044</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>45502</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33640,7 +33640,7 @@
         <v>46027</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33697,7 +33697,7 @@
         <v>44726.61040509259</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33754,7 +33754,7 @@
         <v>46024.46907407408</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33811,7 +33811,7 @@
         <v>46024.46914351852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33868,7 +33868,7 @@
         <v>44973.92466435185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33925,7 +33925,7 @@
         <v>46026</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33982,7 +33982,7 @@
         <v>46026</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34039,7 +34039,7 @@
         <v>46069.55560185185</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34096,7 +34096,7 @@
         <v>46066</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34153,7 +34153,7 @@
         <v>46026</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34210,7 +34210,7 @@
         <v>46024.44824074074</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34267,7 +34267,7 @@
         <v>46070</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34324,7 +34324,7 @@
         <v>46064</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34381,7 +34381,7 @@
         <v>46065</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>46065</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34505,7 +34505,7 @@
         <v>46065</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34567,7 +34567,7 @@
         <v>44889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>46029</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>46029.44939814815</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>46029.74581018519</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44755</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>44881.95212962963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34919,7 +34919,7 @@
         <v>46069</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34976,7 +34976,7 @@
         <v>46072</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35033,7 +35033,7 @@
         <v>45194</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35090,7 +35090,7 @@
         <v>46030.62643518519</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35147,7 +35147,7 @@
         <v>46052</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35204,7 +35204,7 @@
         <v>46052</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35261,7 +35261,7 @@
         <v>46052</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>45706.59415509259</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35380,7 +35380,7 @@
         <v>46072</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35437,7 +35437,7 @@
         <v>46072</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35494,7 +35494,7 @@
         <v>45505</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
         <v>46072</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         <v>46029.78170138889</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>44847</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>46072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>44287</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>46052</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>46071</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>46070</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>46071</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>46070</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44847</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>46029.75778935185</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36250,7 +36250,7 @@
         <v>46029.77623842593</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         <v>46030.71917824074</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36364,7 +36364,7 @@
         <v>46030</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>45723.55694444444</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>45482.95092592593</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>46072.71412037037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36597,7 +36597,7 @@
         <v>46071</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36654,7 +36654,7 @@
         <v>45328</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36716,7 +36716,7 @@
         <v>45328</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>45390</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>45685.36495370371</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44496</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44875</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44448</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44531.43854166667</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37120,7 +37120,7 @@
         <v>45729</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
         <v>45545</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37234,7 +37234,7 @@
         <v>45595.6062962963</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37291,7 +37291,7 @@
         <v>45595.63494212963</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37348,7 +37348,7 @@
         <v>45280</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37405,7 +37405,7 @@
         <v>45756</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37462,7 +37462,7 @@
         <v>44743.92454861111</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37519,7 +37519,7 @@
         <v>44806</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37576,7 +37576,7 @@
         <v>44806</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>45714.56533564815</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45229</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>44991</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>45764.38630787037</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37871,7 +37871,7 @@
         <v>45250</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37928,7 +37928,7 @@
         <v>45580.46635416667</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37985,7 +37985,7 @@
         <v>45281.92850694444</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38042,7 +38042,7 @@
         <v>45365</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38099,7 +38099,7 @@
         <v>44957</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38156,7 +38156,7 @@
         <v>45265.95650462963</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>45476</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44320</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>45476</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>45166</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38451,7 +38451,7 @@
         <v>44855.92621527778</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38508,7 +38508,7 @@
         <v>44890</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38570,7 +38570,7 @@
         <v>45588.36490740741</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38632,7 +38632,7 @@
         <v>44853.92789351852</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38689,7 +38689,7 @@
         <v>44945</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38751,7 +38751,7 @@
         <v>44903</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38813,7 +38813,7 @@
         <v>45251</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38870,7 +38870,7 @@
         <v>45512</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38927,7 +38927,7 @@
         <v>45723.48438657408</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>44497</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44502</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>45685.44978009259</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>45323.62694444445</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>45639.45652777778</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39269,7 +39269,7 @@
         <v>44609</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         <v>44952</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39388,7 +39388,7 @@
         <v>45715.4187037037</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39445,7 +39445,7 @@
         <v>44747</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39502,7 +39502,7 @@
         <v>45152</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39559,7 +39559,7 @@
         <v>45764.42755787037</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39621,7 +39621,7 @@
         <v>45099</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>45629.39958333333</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>45000.01387731481</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>45000</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39864,7 +39864,7 @@
         <v>44819.94980324074</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39926,7 +39926,7 @@
         <v>45609</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39983,7 +39983,7 @@
         <v>45762.52983796296</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40040,7 +40040,7 @@
         <v>44442.56886574074</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40097,7 +40097,7 @@
         <v>45713.43980324074</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40154,7 +40154,7 @@
         <v>45163.92689814815</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40211,7 +40211,7 @@
         <v>45638.71168981482</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40268,7 +40268,7 @@
         <v>45107</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40325,7 +40325,7 @@
         <v>45276</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40382,7 +40382,7 @@
         <v>45685.46976851852</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40439,7 +40439,7 @@
         <v>45776</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40496,7 +40496,7 @@
         <v>45776</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40553,7 +40553,7 @@
         <v>45782.595</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40615,7 +40615,7 @@
         <v>45782.67861111111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>45782.59438657408</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40739,7 +40739,7 @@
         <v>45785.48142361111</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40796,7 +40796,7 @@
         <v>45562</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>45785</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>45785.47561342592</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>45578.37409722222</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>45786.67776620371</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>45574.50597222222</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>45791.62273148148</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>45790.34427083333</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>45791</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>45342</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>45433</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41438,7 +41438,7 @@
         <v>45351</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41495,7 +41495,7 @@
         <v>45793</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41552,7 +41552,7 @@
         <v>45579.40584490741</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>44571</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         <v>45266.55423611111</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>45516.53993055555</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>45799.57399305556</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41842,7 +41842,7 @@
         <v>45139</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41899,7 +41899,7 @@
         <v>45799</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41956,7 +41956,7 @@
         <v>44475</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42013,7 +42013,7 @@
         <v>45803.42711805556</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42070,7 +42070,7 @@
         <v>45762</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42127,7 +42127,7 @@
         <v>45800.61607638889</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42189,7 +42189,7 @@
         <v>45805.34465277778</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42251,7 +42251,7 @@
         <v>44441.36515046296</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42308,7 +42308,7 @@
         <v>45805.44916666667</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42370,7 +42370,7 @@
         <v>45805.46679398148</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         <v>45805.46865740741</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42484,7 +42484,7 @@
         <v>45630.64306712963</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42541,7 +42541,7 @@
         <v>45807</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42598,7 +42598,7 @@
         <v>45205</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42655,7 +42655,7 @@
         <v>45811.38631944444</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42712,7 +42712,7 @@
         <v>45811.37457175926</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42769,7 +42769,7 @@
         <v>45813</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42826,7 +42826,7 @@
         <v>45812.51498842592</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42883,7 +42883,7 @@
         <v>45812.51732638889</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -575,7 +575,7 @@
         <v>45763</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>45938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>45558</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>45847.54039351852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45805</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45484</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>45394</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44313.6724537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>45763.615625</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45978.36513888889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44874</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45352</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45328</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45593.7190625</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45548.48994212963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45575.40046296296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45848.34471064815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45971.34467592592</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>45560</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>45593.49023148148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>44686</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45910.55276620371</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>46003.55268518518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>45957</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>45596.66052083333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>45456.9669212963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45617.61793981482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45847.53387731482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>45930.69866898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>45930.6985300926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>45589.42767361111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>45588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>45967.4900462963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45575.37862268519</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>45182</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>44874</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>45188</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44664</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44270</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45008</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45618.63611111111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>45355</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45350</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45477</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>45567</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>45930.69878472222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44321</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>45526</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>45589.42753472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>45314</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45593.49070601852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>45267</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>46062</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>46031</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>44559</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>44694</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>45372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>45769.42828703704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>44837</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>45428</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>45763.61552083334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>45793.59447916667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>44874</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>44452.94059027778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>44434</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>44392</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>44263</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>44664</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>44806</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>44424.92148148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44347.4090162037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>44347</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44846</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44875.92774305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44370</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44477.43289351852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44720</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44600</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>44824</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44487</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>44734</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44816</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>44517</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44263</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>44378.60858796296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>44728.94432870371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44301</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44477.43844907408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44386</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44438</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44475.87886574074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44402.41153935185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44301</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>44476</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>44585</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>44447</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>44697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44664</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44691</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44804</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44384</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44301</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44512</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44503.38335648148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44301</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44806</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44735</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44581</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44848</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>44469</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44522</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>44672</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44515.31559027778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>44652</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>44664</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>44616.70839120371</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>44496</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>44532</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>44571</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>44512</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>44321</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>44664</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44536</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>44522</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>44655</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>44347.38006944444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>44321</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44585.89016203704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>44357</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44792</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>45358</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>45462</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>45293</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>44641</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>45554.63729166667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>45334</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>45209</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>45523</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11642,7 +11642,7 @@
         <v>45667.55081018519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>45588</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>44617.92136574074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>45576.59421296296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>45281</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>45314</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>45762.52707175926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>45405</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44747.38347222222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44858</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45649.63103009259</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45231</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45496.92956018518</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45729.40671296296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>45583.44405092593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>45769.42833333334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>45352</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44853</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44809.92577546297</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>45566</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>45757</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>45558.43896990741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>45000.01231481481</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>45228</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44321</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>45350</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45300</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>45628</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>45586</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>45482</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>45106.94429398148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>45531.43938657407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44853</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>45289</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>45225</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>45281.9281712963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>45278</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>45289</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>45645.67857638889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>44320</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45649.62344907408</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>44755</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>45181</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>45819.3259837963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>45761.55424768518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45819.32322916666</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>45887.63584490741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>45887.36519675926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>45800</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>45578.34388888889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>45578.40445601852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>45749.59996527778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>45800</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>45825.34547453704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>45825.34550925926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>45825.34538194445</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>45825.34542824074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>45825.34561342592</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>45825.34568287037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>45825.34569444445</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15221,7 +15221,7 @@
         <v>45888.4690162037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15278,7 +15278,7 @@
         <v>45825.34539351852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>45825.34547453704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15392,7 +15392,7 @@
         <v>44728</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>45824.3446412037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>45791</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44424</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>45757.58121527778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>45890.34435185185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15744,7 +15744,7 @@
         <v>45826.65685185185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45890.63642361111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45826.5734375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>45891.61520833334</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45681.54129629629</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45567.40853009259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45833.42825231481</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>45496</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45821</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>45821</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>45897.37375</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>45833.55240740741</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>45833.42840277778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45833.42873842592</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>45833.38618055556</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44390</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>45832.65871527778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45832.63559027778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>45764.36490740741</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45833.57403935185</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>45833.38581018519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>45834</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>45901</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>45811</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>45483</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>45834.46159722222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>44603</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45173</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>45837.65668981482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>45203</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>45905.5446875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>45769.38585648148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>45837.6984375</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>45803.66592592592</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>45168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>45629.63753472222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>45799</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         <v>45840.54565972222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>45603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>45840</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18094,7 +18094,7 @@
         <v>45840</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>45840.55723379629</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>45840.57372685185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44980</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>45097</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45910.57519675926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>45701.34599537037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>45915.49033564814</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         <v>45915.49113425926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>45729</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>45729.38563657407</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>45562</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>45749</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>45917</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>45916.34471064815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>45848.60254629629</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45904</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45848.61704861111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45848.65488425926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>45853.34439814815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45352</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45919.34494212963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45769.42797453704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45769.38575231482</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44973</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45919.34434027778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>45730</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>45859.49021990741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>45923.46921296296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>45741.61486111111</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>45922.34427083333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>45342</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>45922.36494212963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45793</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45531.39597222222</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45624</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>45729.40675925926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45924</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>45925.3240625</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>45638.38923611111</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>45825.34553240741</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>45574.35724537037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>45924</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>45924</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>45741.61488425926</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>45924</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>45924.41118055556</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45293</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20999,7 +20999,7 @@
         <v>45924.54756944445</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45180</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>44853</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>45147</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>45320</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>45168</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21341,7 +21341,7 @@
         <v>45293</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21398,7 +21398,7 @@
         <v>45874.61498842593</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>45874.61505787037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45874.65864583333</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>45930</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21626,7 +21626,7 @@
         <v>45874.61506944444</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>45874.66869212963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21740,7 +21740,7 @@
         <v>45874.6715625</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>45880.34414351852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21854,7 +21854,7 @@
         <v>45919</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>45936.64701388889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>45936.51167824074</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>45936.5117824074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>45348</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>45936.45436342592</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>45937.34498842592</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>45168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>45072</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>45322</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44936.68680555555</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44321</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>45910</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>45511</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>45939.59466435185</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>45749</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>44321</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44728</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>45887.63356481482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>45887.626875</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>44971</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>45884.45579861111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>45489.94590277778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>45638.34339120371</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45415</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45358</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44791</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>45273</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>45126</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>45685.36509259259</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44987</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45189</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45951.34535879629</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>45376</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44869</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45953.34431712963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45006</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45428</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45952</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45562</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>45952</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>45952</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         <v>45409</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>45645</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>45638.69253472222</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>45409</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>45959.36515046296</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45959.36518518518</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44314</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>45352</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>45147</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>45462</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>45793.34438657408</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>45418</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>45091</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44937.92483796296</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>45973.57857638889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>45972.61591435185</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>45973.5896412037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>45972.61564814814</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45772.46998842592</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>45723</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>45975.6159375</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25577,7 +25577,7 @@
         <v>45975.34515046296</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45978.34434027778</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>45733.4356712963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>45979.34581018519</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>45979.42451388889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>45979.42777777778</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>45979.43927083333</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>45979.47430555556</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>45293</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>45979.34442129629</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>45979.34475694445</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26229,7 +26229,7 @@
         <v>45979.34508101852</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26291,7 +26291,7 @@
         <v>45980.38600694444</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26348,7 +26348,7 @@
         <v>45981</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26410,7 +26410,7 @@
         <v>45392</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26467,7 +26467,7 @@
         <v>45981.65686342592</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45044</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>44951.94020833333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45985.63694444444</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44897</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45987</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45044</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45729.344375</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44596</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>44706</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>45512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>46034.58887731482</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>45629.63747685185</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>46035.3903587963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>46034.39813657408</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>45992.39237268519</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>45992.89322916666</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>46035.38560185185</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>45992.40408564815</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45992.3971875</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45126</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45646</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>46035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45329.36856481482</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45999.38697916667</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45999.38715277778</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>46041.58019675926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45616.5107175926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45320</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>46038.42966435185</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>46038.42410879629</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45999.38717592593</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>45526</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28430,7 +28430,7 @@
         <v>46042.37601851852</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28487,7 +28487,7 @@
         <v>46042.68803240741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28544,7 +28544,7 @@
         <v>45035</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28601,7 +28601,7 @@
         <v>46000.58881944444</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>46000.58288194444</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28715,7 +28715,7 @@
         <v>46000.60041666667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28772,7 +28772,7 @@
         <v>45163</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>46042.6821412037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>44853</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45138</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         <v>46045.34459490741</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>45775.36451388889</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29114,7 +29114,7 @@
         <v>45531</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44867.92756944444</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>45764.44842592593</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>46046.67746527777</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>45390</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>45678.4485300926</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29471,7 +29471,7 @@
         <v>46006.57371527778</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>46046.656875</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29585,7 +29585,7 @@
         <v>45772.3857175926</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         <v>44676</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         <v>46004</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29823,7 +29823,7 @@
         <v>46035</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29880,7 +29880,7 @@
         <v>46051.365</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>46049</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>46009.37552083333</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>46009.34849537037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>45015</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         <v>46052.56612268519</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>46013</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
         <v>45145.95366898148</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30346,7 +30346,7 @@
         <v>45145.95372685185</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30408,7 +30408,7 @@
         <v>45749</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30465,7 +30465,7 @@
         <v>46052</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30527,7 +30527,7 @@
         <v>46052.36519675926</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30584,7 +30584,7 @@
         <v>46055.69087962963</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30641,7 +30641,7 @@
         <v>45469</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30698,7 +30698,7 @@
         <v>45313</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30755,7 +30755,7 @@
         <v>45622</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30812,7 +30812,7 @@
         <v>46056.54938657407</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30869,7 +30869,7 @@
         <v>44971</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30931,7 +30931,7 @@
         <v>45148.92568287037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30988,7 +30988,7 @@
         <v>45243</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44845.92814814814</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>45733.44667824074</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>45409</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         <v>44580.92256944445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31273,7 +31273,7 @@
         <v>45513</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>45513</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>46020.68284722222</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>46021</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44894</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>45771.588125</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>45366</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31682,7 +31682,7 @@
         <v>46060.7765625</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31739,7 +31739,7 @@
         <v>46063.34446759259</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31796,7 +31796,7 @@
         <v>45251</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>44498</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31910,7 +31910,7 @@
         <v>46022</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31967,7 +31967,7 @@
         <v>46049</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32024,7 +32024,7 @@
         <v>46063</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32081,7 +32081,7 @@
         <v>45376</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>46022</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>46021.974375</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         <v>46023.63582175926</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>46023.63584490741</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32366,7 +32366,7 @@
         <v>46065.49013888889</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32423,7 +32423,7 @@
         <v>45637.36509259259</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>46054</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>46022</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>46065.36491898148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>46047</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>46023.65659722222</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>46058</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>46023.65657407408</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>46058</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44865.95387731482</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33003,7 +33003,7 @@
         <v>45699.42733796296</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33060,7 +33060,7 @@
         <v>46024.46909722222</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33117,7 +33117,7 @@
         <v>46024</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33174,7 +33174,7 @@
         <v>46026</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>46024.43549768518</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>46027</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>46069.57037037037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>46065</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>46024</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>45044</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>45502</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33640,7 +33640,7 @@
         <v>46027</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33697,7 +33697,7 @@
         <v>44726.61040509259</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33754,7 +33754,7 @@
         <v>46024.46907407408</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33811,7 +33811,7 @@
         <v>46024.46914351852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33868,7 +33868,7 @@
         <v>44973.92466435185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33925,7 +33925,7 @@
         <v>46026</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33982,7 +33982,7 @@
         <v>46026</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34039,7 +34039,7 @@
         <v>46069.55560185185</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34096,7 +34096,7 @@
         <v>46066</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34153,7 +34153,7 @@
         <v>46026</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34210,7 +34210,7 @@
         <v>46024.44824074074</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34267,7 +34267,7 @@
         <v>46070</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34324,7 +34324,7 @@
         <v>46064</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34381,7 +34381,7 @@
         <v>46065</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>46065</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34505,7 +34505,7 @@
         <v>46065</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34567,7 +34567,7 @@
         <v>44889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>46029</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>46029.44939814815</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>46029.74581018519</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44755</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>44881.95212962963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34919,7 +34919,7 @@
         <v>46069</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34976,7 +34976,7 @@
         <v>46072</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35033,7 +35033,7 @@
         <v>45194</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35090,7 +35090,7 @@
         <v>46030.62643518519</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35147,7 +35147,7 @@
         <v>46052</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35204,7 +35204,7 @@
         <v>46052</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35261,7 +35261,7 @@
         <v>46052</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>45706.59415509259</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35380,7 +35380,7 @@
         <v>46072</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35437,7 +35437,7 @@
         <v>46072</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35494,7 +35494,7 @@
         <v>45505</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
         <v>46072</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         <v>46029.78170138889</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>44847</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>46072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>44287</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>46052</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>46071</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>46070</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>46071</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>46070</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44847</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>46029.75778935185</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36250,7 +36250,7 @@
         <v>46029.77623842593</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         <v>46030.71917824074</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36364,7 +36364,7 @@
         <v>46030</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>45723.55694444444</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>45482.95092592593</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>46072.71412037037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36597,7 +36597,7 @@
         <v>46071</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36654,7 +36654,7 @@
         <v>45328</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36716,7 +36716,7 @@
         <v>45328</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>45390</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>45685.36495370371</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44496</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44875</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44448</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44531.43854166667</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37120,7 +37120,7 @@
         <v>45729</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
         <v>45545</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37234,7 +37234,7 @@
         <v>45595.6062962963</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37291,7 +37291,7 @@
         <v>45595.63494212963</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37348,7 +37348,7 @@
         <v>45280</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37405,7 +37405,7 @@
         <v>45756</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37462,7 +37462,7 @@
         <v>44743.92454861111</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37519,7 +37519,7 @@
         <v>44806</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37576,7 +37576,7 @@
         <v>44806</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>45714.56533564815</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45229</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>44991</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>45764.38630787037</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37871,7 +37871,7 @@
         <v>45250</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37928,7 +37928,7 @@
         <v>45580.46635416667</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37985,7 +37985,7 @@
         <v>45281.92850694444</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38042,7 +38042,7 @@
         <v>45365</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38099,7 +38099,7 @@
         <v>44957</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38156,7 +38156,7 @@
         <v>45265.95650462963</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>45476</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44320</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>45476</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>45166</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38451,7 +38451,7 @@
         <v>44855.92621527778</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38508,7 +38508,7 @@
         <v>44890</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38570,7 +38570,7 @@
         <v>45588.36490740741</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38632,7 +38632,7 @@
         <v>44853.92789351852</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38689,7 +38689,7 @@
         <v>44945</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38751,7 +38751,7 @@
         <v>44903</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38813,7 +38813,7 @@
         <v>45251</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38870,7 +38870,7 @@
         <v>45512</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38927,7 +38927,7 @@
         <v>45723.48438657408</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>44497</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44502</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>45685.44978009259</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>45323.62694444445</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>45639.45652777778</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39269,7 +39269,7 @@
         <v>44609</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         <v>44952</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39388,7 +39388,7 @@
         <v>45715.4187037037</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39445,7 +39445,7 @@
         <v>44747</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39502,7 +39502,7 @@
         <v>45152</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39559,7 +39559,7 @@
         <v>45764.42755787037</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39621,7 +39621,7 @@
         <v>45099</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>45629.39958333333</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>45000.01387731481</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>45000</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39864,7 +39864,7 @@
         <v>44819.94980324074</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39926,7 +39926,7 @@
         <v>45609</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39983,7 +39983,7 @@
         <v>45762.52983796296</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40040,7 +40040,7 @@
         <v>44442.56886574074</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40097,7 +40097,7 @@
         <v>45713.43980324074</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40154,7 +40154,7 @@
         <v>45163.92689814815</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40211,7 +40211,7 @@
         <v>45638.71168981482</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40268,7 +40268,7 @@
         <v>45107</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40325,7 +40325,7 @@
         <v>45276</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40382,7 +40382,7 @@
         <v>45685.46976851852</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40439,7 +40439,7 @@
         <v>45776</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40496,7 +40496,7 @@
         <v>45776</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40553,7 +40553,7 @@
         <v>45782.595</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40615,7 +40615,7 @@
         <v>45782.67861111111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>45782.59438657408</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40739,7 +40739,7 @@
         <v>45785.48142361111</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40796,7 +40796,7 @@
         <v>45562</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>45785</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>45785.47561342592</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>45578.37409722222</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>45786.67776620371</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>45574.50597222222</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>45791.62273148148</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>45790.34427083333</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>45791</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>45342</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>45433</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41438,7 +41438,7 @@
         <v>45351</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41495,7 +41495,7 @@
         <v>45793</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41552,7 +41552,7 @@
         <v>45579.40584490741</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>44571</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         <v>45266.55423611111</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>45516.53993055555</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>45799.57399305556</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41842,7 +41842,7 @@
         <v>45139</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41899,7 +41899,7 @@
         <v>45799</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41956,7 +41956,7 @@
         <v>44475</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42013,7 +42013,7 @@
         <v>45803.42711805556</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42070,7 +42070,7 @@
         <v>45762</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42127,7 +42127,7 @@
         <v>45800.61607638889</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42189,7 +42189,7 @@
         <v>45805.34465277778</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42251,7 +42251,7 @@
         <v>44441.36515046296</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42308,7 +42308,7 @@
         <v>45805.44916666667</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42370,7 +42370,7 @@
         <v>45805.46679398148</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         <v>45805.46865740741</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42484,7 +42484,7 @@
         <v>45630.64306712963</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42541,7 +42541,7 @@
         <v>45807</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42598,7 +42598,7 @@
         <v>45205</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42655,7 +42655,7 @@
         <v>45811.38631944444</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42712,7 +42712,7 @@
         <v>45811.37457175926</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42769,7 +42769,7 @@
         <v>45813</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42826,7 +42826,7 @@
         <v>45812.51498842592</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42883,7 +42883,7 @@
         <v>45812.51732638889</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -575,7 +575,7 @@
         <v>45763</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>45938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>45558</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>45847.54039351852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45484</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>45805</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45394</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>45546</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44313.6724537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>45978.36513888889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>45763.615625</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45352</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45593.7190625</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45548.48994212963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45560</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>45575.40046296296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45848.34471064815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>45593.49023148148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45971.34467592592</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>44686</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45910.55276620371</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>45027</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>45596.66052083333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>46003.55268518518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>45957</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44874</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45589.42767361111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45588</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>45617.61793981482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>45182</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45847.53387731482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>45930.69866898148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>45930.6985300926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45575.37862268519</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>45967.4900462963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45456.9669212963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>45188</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44664</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44270</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45267</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>45477</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>45593.49070601852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45589.42753472222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>45618.63611111111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>45567</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>45930.69878472222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>45008</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45314</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>44837</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>44694</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>45526</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>45769.42828703704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>45372</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>45763.61552083334</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>46031</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>46062</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44321</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>45428</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>45793.59447916667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>44874</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>44452.94059027778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>44434</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>44392</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>44263</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>44664</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>44806</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>44424.92148148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44347.4090162037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>44347</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44846</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44875.92774305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44370</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44477.43289351852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44720</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44600</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>44824</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44487</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>44734</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44816</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44512</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>44517</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44378.60858796296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>44263</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>44728.94432870371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44301</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44477.43844907408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44438</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44386</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44402.41153935185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44301</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44476</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>44475.87886574074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>44585</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>44447</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>44697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44664</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44691</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44804</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44384</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44301</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44512</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44503.38335648148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44301</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44806</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44735</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44848</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44581</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>44469</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44522</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>44672</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44652</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>44515.31559027778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>44664</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>44616.70839120371</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>44496</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>44532</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>44571</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>44512</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>44321</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>44664</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44536</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>44522</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>44655</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>44321</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>44347.38006944444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44585.89016203704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>45483</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>45772.46998842592</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>45328</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>45328</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44320</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>45044</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>45409</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>45531</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44806</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44806</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44809.92577546297</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44853</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>45281</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>45273</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>45462</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44952</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>45322</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>45243</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44881.95212962963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>45511</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>45281.9281712963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44865.95387731482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44937.92483796296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>45531.43938657407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>45489.94590277778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>45476</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>45293</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44853</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44973.92466435185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>45729</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>45562</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44531.43854166667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>45762</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>45209</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44441.36515046296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>45805.44916666667</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>45805.46679398148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>45805.46865740741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>45805.34465277778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>45630.64306712963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44897</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45558.43896990741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45888.4690162037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>45807</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>45887.63584490741</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>45887.36519675926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>45887.626875</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>45205</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44881</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45811.38631944444</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45761.55424768518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45811.37457175926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45513</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>45887.63356481482</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>45812.51498842592</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45812.51732638889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45890.34435185185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44894</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45813</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45890.63642361111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44609</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45576.59421296296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45225</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45358</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45320</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45567.40853009259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45819.32322916666</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45800</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45819.3259837963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45586</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45800</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45824.3446412037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>45891.61520833334</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>45825.34538194445</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>45825.34542824074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>45825.34561342592</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>45825.34568287037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45825.34569444445</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>45629.63753472222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>45637.36509259259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>45825.34547453704</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>45826.5734375</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45825.34539351852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45825.34547453704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45701.34599537037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45897.37375</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>45791</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>45825.34550925926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>45826.65685185185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45583.44405092593</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45588.36490740741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>45757.58121527778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>45390</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>45505</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>45901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>45588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44755</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>45832.65871527778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>45821</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>45229</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>45821</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>45832.63559027778</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45905.5446875</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>45833.42873842592</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>45803.66592592592</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>45833.38618055556</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>45833.42825231481</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>45834.46159722222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>45833.55240740741</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>45764.38630787037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>45799</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>45833.57403935185</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>45833.38581018519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>45833.42840277778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>44747.38347222222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>45834</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>45603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>45837.6984375</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>45811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>45622</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>45837.65668981482</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>45840.54565972222</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>44732</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45840.55723379629</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>45840.57372685185</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>45840</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>45638.34339120371</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>45293</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44890</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>45840</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>45015</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>45314</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>45910.57519675926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>45848.60254629629</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>45848.61704861111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>45848.65488425926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44971</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>45638.38923611111</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>45749</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>45915.49113425926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>45853.34439814815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>45915.49033564814</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44743.92454861111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45793</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45916.34471064815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45729.40675925926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45741.61486111111</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45859.49021990741</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45624</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44973</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45825.34553240741</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45574.35724537037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44847</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>45741.61488425926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>45919.34494212963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>45922.34427083333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>45919.34434027778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>45910</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>45922.36494212963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>45923.46921296296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>45924.41118055556</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>45924</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45667.55081018519</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>45924</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>45924.54756944445</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45924</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>45924</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>45925.3240625</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>45645</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>45874.61506944444</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>45168</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>45930</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45874.65864583333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>45874.66869212963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45874.6715625</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44853</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45138</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45874.61498842593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>45874.61505787037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>45880.34414351852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44390</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>45545</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44980</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>45919</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>45706.59415509259</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45678.4485300926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>45775.36451388889</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>45764.36490740741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>45936.64701388889</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>45729.40671296296</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>45936.45436342592</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>44971</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45936.5117824074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45936.51167824074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44936.68680555555</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>45884.45579861111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>45496</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>45769.38575231482</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>45769.42833333334</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>45910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>45685.46976851852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>45937.34498842592</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>45749</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>45749.59996527778</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44603</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44448</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45939.59466435185</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>45044</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45203</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45764.44842592593</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>45106.94429398148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>45714.56533564815</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44853.92789351852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>44442.56886574074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44596</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>45771.588125</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>45099</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>45952</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>45952</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>45649.62344907408</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>45951.34535879629</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>45952</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>45953.34431712963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24182,7 +24182,7 @@
         <v>45723.48438657408</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24239,7 +24239,7 @@
         <v>45566</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24296,7 +24296,7 @@
         <v>45562</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24358,7 +24358,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>45293</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>44497</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>45329.36856481482</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>45756</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45645.67857638889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45959.36515046296</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45959.36518518518</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24819,7 +24819,7 @@
         <v>44847</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>45000.01231481481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>45352</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>45265.95650462963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>45772.3857175926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>45276</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>45281.92850694444</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>45409</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>45793.34438657408</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44819.94980324074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>45278</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>45972.61564814814</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>45502</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>45973.5896412037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45972.61591435185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>45973.57857638889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>45975.34515046296</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>45978.34434027778</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>44791</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45418</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44502</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45975.6159375</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45979.34508101852</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26200,7 +26200,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>45228</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>45979.34442129629</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>45979.47430555556</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>45161</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>45980.38600694444</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>45979.43927083333</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>45390</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>45979.34581018519</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45979.34475694445</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45148.92568287037</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45979.42451388889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45979.42777777778</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45145.95366898148</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27023,7 +27023,7 @@
         <v>45145.95372685185</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>45173</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>45981</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45764.42755787037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>45981.65686342592</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         <v>45342</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44496</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>45405</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>45469</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>45985.63694444444</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>45409</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27675,7 +27675,7 @@
         <v>45334</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27732,7 +27732,7 @@
         <v>45628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>45987</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44641</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27903,7 +27903,7 @@
         <v>45992.3971875</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27960,7 +27960,7 @@
         <v>45992.40408564815</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>45168</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45512</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45639.45652777778</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45992.39237268519</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45992.89322916666</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>45595.6062962963</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45595.63494212963</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>45126</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>45616.5107175926</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28592,7 +28592,7 @@
         <v>46041.58019675926</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>46042.6821412037</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>46042.37601851852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>46042.68803240741</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45999.38697916667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45999.38715277778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45999.38717592593</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>44676</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>46000.60041666667</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>46000.58881944444</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45729.344375</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45629.63747685185</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>46000.58288194444</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45617</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45762.52983796296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>44617.92136574074</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45428</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45163.92689814815</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45152</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>46004</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>44858</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45638.71168981482</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>46006.57371527778</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>46045.34459490741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>46046.656875</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>46046.67746527777</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>45163</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30188,7 +30188,7 @@
         <v>44728</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30245,7 +30245,7 @@
         <v>46051.365</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30302,7 +30302,7 @@
         <v>45685.36495370371</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45181</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>46009.34849537037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>44728</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>46009.37552083333</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>46052.36519675926</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>46052.56612268519</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>46049</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>46056.54938657407</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>46052</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45189</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30934,7 +30934,7 @@
         <v>46013</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30991,7 +30991,7 @@
         <v>46055.69087962963</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31048,7 +31048,7 @@
         <v>45699.42733796296</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>45168</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         <v>44726.61040509259</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31219,7 +31219,7 @@
         <v>45723.55694444444</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
         <v>45166</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31338,7 +31338,7 @@
         <v>46020.68284722222</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31395,7 +31395,7 @@
         <v>46060.7765625</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31452,7 +31452,7 @@
         <v>45251</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         <v>45350</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31571,7 +31571,7 @@
         <v>46063</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31628,7 +31628,7 @@
         <v>45293</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31685,7 +31685,7 @@
         <v>45320</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31742,7 +31742,7 @@
         <v>46022</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31799,7 +31799,7 @@
         <v>46022</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31856,7 +31856,7 @@
         <v>46047</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31913,7 +31913,7 @@
         <v>45231</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31970,7 +31970,7 @@
         <v>46022</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32027,7 +32027,7 @@
         <v>44747</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32084,7 +32084,7 @@
         <v>46021</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>46021.974375</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32198,7 +32198,7 @@
         <v>46049</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32255,7 +32255,7 @@
         <v>45348</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>46063.34446759259</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32369,7 +32369,7 @@
         <v>45072</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32426,7 +32426,7 @@
         <v>46024.46909722222</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>46024</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>46065</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>46024.44824074074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>45313</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>46023.63582175926</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>46024.43549768518</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>45366</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>46024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>46023.65657407408</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33001,7 +33001,7 @@
         <v>46065.36491898148</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>46065.49013888889</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>44853</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>45365</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33229,7 +33229,7 @@
         <v>46023.65659722222</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>46023.63584490741</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>46024.46907407408</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33400,7 +33400,7 @@
         <v>46024.46914351852</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33457,7 +33457,7 @@
         <v>46054</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33514,7 +33514,7 @@
         <v>46066</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         <v>46027</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33628,7 +33628,7 @@
         <v>45749</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33685,7 +33685,7 @@
         <v>45757</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33742,7 +33742,7 @@
         <v>46026</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33799,7 +33799,7 @@
         <v>46069.55560185185</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33856,7 +33856,7 @@
         <v>46026</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33913,7 +33913,7 @@
         <v>46069</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>46026</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34027,7 +34027,7 @@
         <v>46026</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>46064</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>46065</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>46065</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>46065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>46027</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>46069.57037037037</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>46029.78170138889</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>46029.74581018519</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>46029</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>46029.75778935185</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>46029.77623842593</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>46030</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>46030.71917824074</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>44792</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45733.4356712963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45733.44667824074</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45496</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>46029.44939814815</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>45352</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35187,7 +35187,7 @@
         <v>46070</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35244,7 +35244,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>45280</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>46030.62643518519</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>46072.71412037037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>46070</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>46072</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>46070</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45462</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>46052</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>46072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>46072</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>46052</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>46052</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>46034.58887731482</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44875</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>46034.39813657408</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>45482.95092592593</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36218,7 +36218,7 @@
         <v>46072</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>45496.92956018518</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44957</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>46035</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>46077.65894675926</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>45523</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44903</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>46058</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44945</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36741,7 +36741,7 @@
         <v>46071</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36798,7 +36798,7 @@
         <v>46071</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>46071</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36912,7 +36912,7 @@
         <v>44424</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36969,7 +36969,7 @@
         <v>46035</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         <v>46035.3903587963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37083,7 +37083,7 @@
         <v>46058</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37140,7 +37140,7 @@
         <v>45376</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37197,7 +37197,7 @@
         <v>46035.38560185185</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37254,7 +37254,7 @@
         <v>46052</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44320</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37368,7 +37368,7 @@
         <v>46072</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37425,7 +37425,7 @@
         <v>46076</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37482,7 +37482,7 @@
         <v>46038.42966435185</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37539,7 +37539,7 @@
         <v>44889</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37601,7 +37601,7 @@
         <v>44755</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37658,7 +37658,7 @@
         <v>45289</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37715,7 +37715,7 @@
         <v>44845.92814814814</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37772,7 +37772,7 @@
         <v>44287</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37829,7 +37829,7 @@
         <v>45072</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         <v>46080</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37948,7 +37948,7 @@
         <v>45194</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38005,7 +38005,7 @@
         <v>45289</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>44580.92256944445</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38119,7 +38119,7 @@
         <v>46038.42410879629</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38176,7 +38176,7 @@
         <v>45476</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38233,7 +38233,7 @@
         <v>44357</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38290,7 +38290,7 @@
         <v>45006</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38347,7 +38347,7 @@
         <v>45300</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38404,7 +38404,7 @@
         <v>45035</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38461,7 +38461,7 @@
         <v>44987</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38523,7 +38523,7 @@
         <v>44869</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38580,7 +38580,7 @@
         <v>45392</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38637,7 +38637,7 @@
         <v>45000.01387731481</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38699,7 +38699,7 @@
         <v>45000</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>45250</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>45044</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>44321</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>45126</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>45769.42797453704</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39056,7 +39056,7 @@
         <v>45554.63729166667</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>45415</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>45609</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>45762.52707175926</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>45180</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>45638.69253472222</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>45580.46635416667</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>45147</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>45649.63103009259</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>45526</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>45358</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>45251</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>45482</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>44321</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39859,7 +39859,7 @@
         <v>45769.38585648148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39921,7 +39921,7 @@
         <v>45646</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39978,7 +39978,7 @@
         <v>45107</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40035,7 +40035,7 @@
         <v>45713.43980324074</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40092,7 +40092,7 @@
         <v>44314</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         <v>45723</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40206,7 +40206,7 @@
         <v>45097</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40263,7 +40263,7 @@
         <v>44855.92621527778</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40320,7 +40320,7 @@
         <v>45629.39958333333</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40377,7 +40377,7 @@
         <v>45323.62694444445</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40434,7 +40434,7 @@
         <v>45578.34388888889</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40491,7 +40491,7 @@
         <v>45578.40445601852</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40548,7 +40548,7 @@
         <v>44951.94020833333</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40610,7 +40610,7 @@
         <v>45531.39597222222</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40667,7 +40667,7 @@
         <v>45512</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40724,7 +40724,7 @@
         <v>44867.92756944444</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40781,7 +40781,7 @@
         <v>45715.4187037037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>45513</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40900,7 +40900,7 @@
         <v>45729.38563657407</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>44321</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41014,7 +41014,7 @@
         <v>45352</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41076,7 +41076,7 @@
         <v>45376</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>45730</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41190,7 +41190,7 @@
         <v>45729</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41247,7 +41247,7 @@
         <v>45685.44978009259</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41304,7 +41304,7 @@
         <v>45681.54129629629</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41361,7 +41361,7 @@
         <v>45685.36509259259</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41418,7 +41418,7 @@
         <v>45776</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41475,7 +41475,7 @@
         <v>45776</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41532,7 +41532,7 @@
         <v>45782.595</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41594,7 +41594,7 @@
         <v>45782.59438657408</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41656,7 +41656,7 @@
         <v>45782.67861111111</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>45562</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>45785.48142361111</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>45786.67776620371</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41894,7 +41894,7 @@
         <v>45785</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41956,7 +41956,7 @@
         <v>45785.47561342592</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42013,7 +42013,7 @@
         <v>45578.37409722222</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42070,7 +42070,7 @@
         <v>45790.34427083333</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42132,7 +42132,7 @@
         <v>45791.62273148148</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42189,7 +42189,7 @@
         <v>45791</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42246,7 +42246,7 @@
         <v>45342</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42303,7 +42303,7 @@
         <v>45574.50597222222</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42360,7 +42360,7 @@
         <v>45433</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42417,7 +42417,7 @@
         <v>45351</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42474,7 +42474,7 @@
         <v>44571</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42531,7 +42531,7 @@
         <v>45579.40584490741</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42588,7 +42588,7 @@
         <v>45793</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42645,7 +42645,7 @@
         <v>45266.55423611111</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42702,7 +42702,7 @@
         <v>45516.53993055555</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42759,7 +42759,7 @@
         <v>45139</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>44475</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>45799</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45799.57399305556</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42992,7 +42992,7 @@
         <v>45800.61607638889</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43054,7 +43054,7 @@
         <v>45803.42711805556</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
